--- a/data/predictions/race/aid_blacks/overall/independent.xlsx
+++ b/data/predictions/race/aid_blacks/overall/independent.xlsx
@@ -955,13 +955,13 @@
         <v>0.1783270278228941</v>
       </c>
       <c r="F34">
-        <v>0.07435642411332188</v>
+        <v>0.08003580849231937</v>
       </c>
       <c r="H34">
         <v>0.07701621360126308</v>
       </c>
       <c r="J34">
-        <v>0.1704512900459526</v>
+        <v>0.173216437333819</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -975,13 +975,13 @@
         <v>0.2413118470838698</v>
       </c>
       <c r="F35">
-        <v>0.07815611679013598</v>
+        <v>0.08254246317928139</v>
       </c>
       <c r="H35">
         <v>0.07148961828366385</v>
       </c>
       <c r="J35">
-        <v>0.1717089215177285</v>
+        <v>0.1704534399875865</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -995,13 +995,13 @@
         <v>0.2399688615438271</v>
       </c>
       <c r="F36">
-        <v>0.07706722180096282</v>
+        <v>0.08470027966623982</v>
       </c>
       <c r="H36">
         <v>0.0694551373328849</v>
       </c>
       <c r="J36">
-        <v>0.171632785211218</v>
+        <v>0.1802607084186434</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1015,13 +1015,13 @@
         <v>0.2351542100917196</v>
       </c>
       <c r="F37">
-        <v>0.07665144459459698</v>
+        <v>0.06846219608638365</v>
       </c>
       <c r="H37">
         <v>0.06843667094508984</v>
       </c>
       <c r="J37">
-        <v>0.1729532076898031</v>
+        <v>0.1651465841873211</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1035,13 +1035,13 @@
         <v>0.2301521985354973</v>
       </c>
       <c r="F38">
-        <v>0.07614298467893173</v>
+        <v>0.06050049714498723</v>
       </c>
       <c r="H38">
         <v>0.06771380930667054</v>
       </c>
       <c r="J38">
-        <v>0.1736256857729041</v>
+        <v>0.1720873478498358</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1055,13 +1055,13 @@
         <v>0.225140075462354</v>
       </c>
       <c r="F39">
-        <v>0.07564728639997031</v>
+        <v>0.07723852452833199</v>
       </c>
       <c r="H39">
         <v>0.06707695250621032</v>
       </c>
       <c r="J39">
-        <v>0.1745403954003117</v>
+        <v>0.1671071068825634</v>
       </c>
     </row>
   </sheetData>
